--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>597240.3716651289</v>
+        <v>594853.3296764937</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12866823.29189678</v>
+        <v>12923618.62134007</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11733121.77112018</v>
+        <v>11726874.40504389</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>153.4201834377885</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>29.87588351936339</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>106.5138060561774</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.24186011478338</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>211.7678064195674</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>97.32228826427132</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>250.4301205060154</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.1865869630687</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>210.8035104954931</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>275.0428790940282</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>68.11015198958181</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>90.24368809167424</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13.1339777905794</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>331.6388439349719</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754676</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>151.9091508528026</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.0649882391312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.54495758297978</v>
+        <v>136.4226250355559</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.831980181936</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060644</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>178.5863974921403</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.63412424768662</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520906</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>133.6059237111978</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699774</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520987</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>43.73846614325537</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.14614278817813</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188248</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>149.9095691544923</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.385683093591</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C2" t="n">
-        <v>1964.385683093591</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="D2" t="n">
-        <v>1606.119984486841</v>
+        <v>568.0079985935433</v>
       </c>
       <c r="E2" t="n">
-        <v>1220.331731888596</v>
+        <v>568.0079985935433</v>
       </c>
       <c r="F2" t="n">
-        <v>809.3458270989888</v>
+        <v>561.0624978443399</v>
       </c>
       <c r="G2" t="n">
-        <v>394.2733769439853</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>96.68977655275251</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,7 +4346,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4373,7 +4373,7 @@
         <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1964.385683093591</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>553.2677753977071</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3315924698002</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218342</v>
@@ -4486,52 +4486,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025388</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025388</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025388</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025388</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="W4" t="n">
-        <v>639.3706644025388</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X4" t="n">
-        <v>639.3706644025388</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>639.3706644025388</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4635,25 @@
         <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,7 +4662,7 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533342</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452389</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U7" t="n">
-        <v>609.2899331452389</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V7" t="n">
-        <v>354.6054449393521</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>354.6054449393521</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>354.6054449393521</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.6054449393521</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1422.200456328341</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1422.200456328341</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1063.934757721591</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1808.800296392463</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4869,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.785347575338</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C10" t="n">
-        <v>376.785347575338</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>226.6687081630023</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>226.6687081630023</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>79.77876066509191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V10" t="n">
-        <v>666.2025176122986</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="W10" t="n">
-        <v>376.785347575338</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="X10" t="n">
-        <v>376.785347575338</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="Y10" t="n">
-        <v>376.785347575338</v>
+        <v>474.5166334391241</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.422574620032</v>
       </c>
       <c r="G11" t="n">
         <v>379.2389888872365</v>
@@ -5039,25 +5039,25 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128779</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.49737412729</v>
@@ -5118,28 +5118,28 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385037</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>1653.719034637164</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>2275.814998036501</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.9282626384163</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="C13" t="n">
-        <v>242.9282626384163</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="D13" t="n">
         <v>92.81162322608056</v>
@@ -5236,13 +5236,13 @@
         <v>695.0373399876306</v>
       </c>
       <c r="W13" t="n">
-        <v>405.62016995067</v>
+        <v>541.593753267628</v>
       </c>
       <c r="X13" t="n">
-        <v>405.62016995067</v>
+        <v>313.6042023696107</v>
       </c>
       <c r="Y13" t="n">
-        <v>242.9282626384163</v>
+        <v>92.81162322608056</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>691.195150674524</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>391.8463960427007</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
         <v>1440.555541309953</v>
@@ -5461,25 +5461,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.480314654151</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V16" t="n">
-        <v>896.7958264482644</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="W16" t="n">
-        <v>607.3786564113038</v>
+        <v>459.6068452950356</v>
       </c>
       <c r="X16" t="n">
-        <v>607.3786564113038</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.4948608729404</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797092</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797092</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1023.504924139569</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>1231.62295514633</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>1390.641913038988</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>1509.840147765887</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>1509.840147765887</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216012</v>
+        <v>1326.985313420792</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238953</v>
+        <v>1107.383848443733</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583151</v>
+        <v>818.3086217879307</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377264</v>
+        <v>563.6241335820439</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340304</v>
+        <v>274.2069635450833</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442286</v>
+        <v>274.2069635450833</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987563</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797191</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206044</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926976</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803618</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979687</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2436.221543936133</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2253.366709591037</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591037</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935235</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729348</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.20027379437</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508442</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.30990006223</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343231</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>747.3737171343231</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>599.46062355193</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>452.5706760540196</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934014</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400672</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121604</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.502065570307</v>
       </c>
     </row>
     <row r="29">
@@ -6452,25 +6452,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6479,10 +6479,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2402.78281474869</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,25 +6938,25 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876638</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474262</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>94.65038286230612</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614337</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179035</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.1991887469509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9319,25 +9319,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444618</v>
+        <v>4.641492587838968</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>279.7241325998762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>50.29152613728991</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>134.6138474837884</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.51966511296362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012034</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>185.039695769115</v>
+        <v>82.16202831653885</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922698</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610381</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>39.9982558599545</v>
       </c>
     </row>
     <row r="20">
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>55.74112246243504</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>31.91821458107106</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823496</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>137.2878198583892</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194355</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.4596884482327</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.5956654067454</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.469330230033</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998469.6611366669</v>
+        <v>1026302.212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>973459.4105421111</v>
+        <v>973459.4105421109</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>979042.9456070799</v>
+        <v>979042.9456070798</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1023571.904772803</v>
+        <v>982108.4745127255</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1023571.904772804</v>
+        <v>1023571.904772803</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1023571.904772804</v>
+        <v>1023571.904772803</v>
       </c>
     </row>
     <row r="10">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>399387.8644546664</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>389383.7642168442</v>
+        <v>389383.7642168443</v>
       </c>
       <c r="F2" t="n">
-        <v>391617.1782428318</v>
+        <v>391617.1782428317</v>
       </c>
       <c r="G2" t="n">
+        <v>392440.2793675284</v>
+      </c>
+      <c r="H2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="I2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="J2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="H2" t="n">
-        <v>403573.2998450032</v>
-      </c>
-      <c r="I2" t="n">
-        <v>403573.2998450032</v>
-      </c>
-      <c r="J2" t="n">
-        <v>403573.2998450029</v>
       </c>
       <c r="K2" t="n">
         <v>403573.299845003</v>
@@ -26344,13 +26344,13 @@
         <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="N2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="O2" t="n">
         <v>403573.299845003</v>
-      </c>
-      <c r="N2" t="n">
-        <v>403573.299845003</v>
-      </c>
-      <c r="O2" t="n">
-        <v>403573.2998450032</v>
       </c>
       <c r="P2" t="n">
         <v>403573.2998450031</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189855</v>
+        <v>313680.0588189859</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504152</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832924</v>
+        <v>81924.27863832936</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704785</v>
+        <v>3077.017355704618</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80888.02102371435</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>754.8555874581932</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>1771.683742822808</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26439,19 +26439,19 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1118178.842858034</v>
+        <v>-1119754.545460897</v>
       </c>
       <c r="C6" t="n">
-        <v>208990.2002666955</v>
+        <v>208990.2002666956</v>
       </c>
       <c r="D6" t="n">
-        <v>208990.2002666956</v>
+        <v>208990.2002666958</v>
       </c>
       <c r="E6" t="n">
-        <v>-25193.27870343787</v>
+        <v>-25298.96430701476</v>
       </c>
       <c r="F6" t="n">
-        <v>278280.9970951997</v>
+        <v>278186.4785617535</v>
       </c>
       <c r="G6" t="n">
-        <v>287014.1300142165</v>
+        <v>289455.6627729754</v>
       </c>
       <c r="H6" t="n">
-        <v>287014.1300142164</v>
+        <v>286979.3920887804</v>
       </c>
       <c r="I6" t="n">
-        <v>287014.1300142164</v>
+        <v>286979.3920887805</v>
       </c>
       <c r="J6" t="n">
-        <v>69482.92761693882</v>
+        <v>69448.1896915032</v>
       </c>
       <c r="K6" t="n">
-        <v>287014.1300142162</v>
+        <v>286979.3920887805</v>
       </c>
       <c r="L6" t="n">
-        <v>287014.1300142164</v>
+        <v>286979.3920887805</v>
       </c>
       <c r="M6" t="n">
-        <v>205089.851375887</v>
+        <v>205055.1134504513</v>
       </c>
       <c r="N6" t="n">
-        <v>283937.1126585114</v>
+        <v>283902.374733076</v>
       </c>
       <c r="O6" t="n">
-        <v>287014.1300142164</v>
+        <v>286979.3920887805</v>
       </c>
       <c r="P6" t="n">
-        <v>287014.1300142163</v>
+        <v>286979.3920887806</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26793,22 +26793,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230873</v>
+        <v>268.2643481230878</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237143</v>
+        <v>328.7438349237145</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237145</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237143</v>
+        <v>328.7438349237145</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>257.501542215665</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>11.70104625356258</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.59012006715392</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>74.44403178604543</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>11.86547352390451</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.8078181500382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.64539321886856</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>41.3341328283349</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>106.8874909782336</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>259.6421064805531</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>89.58829209026305</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.8918304684488</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-2.034586771846195e-12</v>
       </c>
     </row>
     <row r="29">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
@@ -31850,19 +31850,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>422.3544583169084</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832324</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,13 +33737,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
@@ -35498,19 +35498,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>279.758213872464</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998991</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>254.4499087332846</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998936</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
